--- a/data/lci-fg_corn.xlsx
+++ b/data/lci-fg_corn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="40">
   <si>
     <t>Database</t>
   </si>
@@ -85,7 +85,7 @@
     <t>kilowatt hour</t>
   </si>
   <si>
-    <t>treatment of inert waste, sanitary landfill</t>
+    <t>treatment of biowaste, industrial composting</t>
   </si>
   <si>
     <t>RoW</t>
@@ -94,40 +94,43 @@
     <t>kilogram</t>
   </si>
   <si>
+    <t>market for glucose</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>market for sweet sorghum grain</t>
+  </si>
+  <si>
+    <t>market for tap water</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>steam production, in chemical industry</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, wastewater treatment</t>
+  </si>
+  <si>
+    <t>cubic meter</t>
+  </si>
+  <si>
+    <t>Purification (corn)</t>
+  </si>
+  <si>
+    <t>market for ammonia, anhydrous, liquid</t>
+  </si>
+  <si>
+    <t>market for ammonium sulfate</t>
+  </si>
+  <si>
     <t>True</t>
   </si>
   <si>
-    <t>glucose production</t>
-  </si>
-  <si>
-    <t>market for sweet sorghum grain</t>
-  </si>
-  <si>
-    <t>GLO</t>
-  </si>
-  <si>
     <t>market for water, ultrapure</t>
-  </si>
-  <si>
-    <t>market group for tap water</t>
-  </si>
-  <si>
-    <t>steam production, in chemical industry</t>
-  </si>
-  <si>
-    <t>treatment of biowaste by anaerobic digestion</t>
-  </si>
-  <si>
-    <t>Purification (corn)</t>
-  </si>
-  <si>
-    <t>market for ammonia, anhydrous, liquid</t>
-  </si>
-  <si>
-    <t>market for ammonium sulfate</t>
-  </si>
-  <si>
-    <t>treatment of sewage sludge, 75% water, WWT, WW from particle board production, sanitary landfill</t>
   </si>
   <si>
     <t>Succinic acid production (corn)</t>
@@ -471,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -600,7 +603,7 @@
         <v>0.9</v>
       </c>
       <c r="H10">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -611,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>-0.82</v>
+        <v>0.82</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -626,13 +629,13 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>-0.82</v>
+        <v>0.82</v>
       </c>
       <c r="H11">
-        <v>0.164</v>
+        <v>0.246</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -703,13 +706,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
-      </c>
-      <c r="B19">
-        <v>1.3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -721,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -738,7 +741,7 @@
         <v>1.66</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -753,7 +756,7 @@
         <v>1.66</v>
       </c>
       <c r="H20">
-        <v>0.332</v>
+        <v>0.498</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -761,13 +764,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>12.9</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
-      </c>
-      <c r="B21">
-        <v>25.3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -779,10 +782,10 @@
         <v>3</v>
       </c>
       <c r="G21">
-        <v>25.3</v>
+        <v>12.9</v>
       </c>
       <c r="H21">
-        <v>5.06</v>
+        <v>3.87</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
@@ -811,7 +814,7 @@
         <v>0.9</v>
       </c>
       <c r="H22">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
@@ -822,7 +825,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>1.29</v>
+        <v>0.023</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -837,10 +840,10 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <v>1.29</v>
+        <v>0.023</v>
       </c>
       <c r="H23">
-        <v>0.258</v>
+        <v>0.0069</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
@@ -848,13 +851,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>22.23</v>
+        <v>0.395</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -866,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>22.23</v>
+        <v>0.395</v>
       </c>
       <c r="H24">
-        <v>4.446</v>
+        <v>0.1185</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
@@ -877,17 +880,17 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>0.013</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="B25">
-        <v>-0.395</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
@@ -895,13 +898,13 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>-0.395</v>
+        <v>0.013</v>
       </c>
       <c r="H25">
-        <v>0.079</v>
+        <v>0.0039</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -990,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
@@ -1019,7 +1022,7 @@
         <v>0.41</v>
       </c>
       <c r="H34">
-        <v>0.082</v>
+        <v>0.123</v>
       </c>
       <c r="I34" t="s">
         <v>19</v>
@@ -1048,24 +1051,24 @@
         <v>-2.72</v>
       </c>
       <c r="H35">
-        <v>0.544</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>0.9</v>
+        <v>25.3</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -1074,10 +1077,10 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>0.9</v>
+        <v>25.3</v>
       </c>
       <c r="H36">
-        <v>0.18</v>
+        <v>7.59</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
@@ -1085,16 +1088,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>-0.011</v>
+        <v>0.9</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -1103,110 +1106,113 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>-0.011</v>
+        <v>0.9</v>
       </c>
       <c r="H37">
-        <v>0.0022</v>
+        <v>0.27</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>0.011</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>0.011</v>
+      </c>
+      <c r="H38">
+        <v>0.0033</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0.2</v>
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -1215,16 +1221,42 @@
         <v>18</v>
       </c>
       <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
         <v>1</v>
       </c>
-      <c r="F46">
+      <c r="G46">
+        <v>0.3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
-        <v>26</v>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
